--- a/medicine/Enfance/Annelise_Heurtier/Annelise_Heurtier.xlsx
+++ b/medicine/Enfance/Annelise_Heurtier/Annelise_Heurtier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annelise Heurtier, née le 13 avril 1979 à Villefranche-sur-Saône, est une écrivaine française, auteure d'ouvrages pour la jeunesse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études plutôt classiques (classe préparatoire puis école de commerce)[1], elle commence à travailler dès 2002 dans le marketing et la communication. Pendant plusieurs années, l'écriture est un hobby qu'elle pratique sur son temps libre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études plutôt classiques (classe préparatoire puis école de commerce), elle commence à travailler dès 2002 dans le marketing et la communication. Pendant plusieurs années, l'écriture est un hobby qu'elle pratique sur son temps libre.
 En 2011, à la faveur d'un déménagement en Polynésie, elle abandonne sa carrière salariée pour se consacrer entièrement à l'écriture.
 Elle écrit pour des publics variés, des premières lectures jusqu'aux romans pour adolescents et jeunes adultes. Souvent inspirés de faits réels (les kumaris au Népal, les Neuf de Little Rock, le handicap, l'émancipation féminine à travers la course à pied, le baby foot et la dance   
-Son roman Sweet Sixteen, paru chez Casterman en 2013, a reçu en peu de temps un accueil exceptionnel[2]. Il a fait partie d'une trentaine de sélections pour des prix littéraires[3], et a notamment remporté le Prix NRP de littérature jeunesse 2014. Il fait également partie des 5 finalistes pour le prix Strega 2020[4] dans sa version "jeunesse" : "Premio Strega Ragazze e Ragazzi"[5], qui est l'équivalent du Goncourt des lycéens italien.
-Aujourd'hui, Sweet Sixteen est étudié dans de nombreux collèges et lycées et fait partie, tout comme Refuges[6] (qui revient sur les destinées des migrants ralliant l'Europe depuis la Corne de l'Afrique), de la liste des ouvrages recommandés par le Ministère de l'Éducation nationale[7]
+Son roman Sweet Sixteen, paru chez Casterman en 2013, a reçu en peu de temps un accueil exceptionnel. Il a fait partie d'une trentaine de sélections pour des prix littéraires, et a notamment remporté le Prix NRP de littérature jeunesse 2014. Il fait également partie des 5 finalistes pour le prix Strega 2020 dans sa version "jeunesse" : "Premio Strega Ragazze e Ragazzi", qui est l'équivalent du Goncourt des lycéens italien.
+Aujourd'hui, Sweet Sixteen est étudié dans de nombreux collèges et lycées et fait partie, tout comme Refuges (qui revient sur les destinées des migrants ralliant l'Europe depuis la Corne de l'Afrique), de la liste des ouvrages recommandés par le Ministère de l'Éducation nationale
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2008 : Sidonie Quenouille, éditions du Rouergue [8]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2008 : Sidonie Quenouille, éditions du Rouergue 
 2008 : L'Opération Boite à Musique, éditions Averbode
 2008 : Un sort renversant pour Mirabelle, éditions Averbode
 2008 : Ma grand-mère a un amoureux !, Magnard Jeunesse
@@ -557,18 +573,18 @@
 2009 : Le mystère des lettres de Noël, éditions Averbode
 2010 : Le grand concours des sorcières, éditions Rageot
 2011 : L’ennui a disparu, éditions Fleurus
-2011 : Le carnet rouge, éditions Casterman [9]
-2012 : La fille aux cheveux d’encre, éditions Casterman [10]
+2011 : Le carnet rouge, éditions Casterman 
+2012 : La fille aux cheveux d’encre, éditions Casterman 
 2012 : Bertille au chocolat, Alice Jeunesse
 2012 : Mon livre pour épater les grands, collectif, éditions Fleurus
-2012 : On n'a rien vu venir, collectif, préfacé par Stéphane Hessel, roman à 7 voix, Alice éditions[11]
-2012 : Olaf, le géant mélomane, Livre-CD, Benjamins Media (2012)[12]
-2013 : Sweet Sixteen, roman, Casterman [13],[14]
-2013 : Charly Tempête Tomes 1 et 2, romans, Casterman[15]
-2014 : Babakunde, album, Casterman[16],[17]
-2014 : Là où naissent les nuages, roman, Casterman[18],[19]
-2014 : Combien de terre faut-il à un homme[20], album, Thierry Magnier
-2015 : Refuges[21], roman, Casterman
+2012 : On n'a rien vu venir, collectif, préfacé par Stéphane Hessel, roman à 7 voix, Alice éditions
+2012 : Olaf, le géant mélomane, Livre-CD, Benjamins Media (2012)
+2013 : Sweet Sixteen, roman, Casterman ,
+2013 : Charly Tempête Tomes 1 et 2, romans, Casterman
+2014 : Babakunde, album, Casterman,
+2014 : Là où naissent les nuages, roman, Casterman,
+2014 : Combien de terre faut-il à un homme, album, Thierry Magnier
+2015 : Refuges, roman, Casterman
 2015 : Danse, Hinatea, album, Au vent des îles
 2016 : Le complexe du papillon, roman, Casterman
 2017 : Envole-moi, roman, Casterman
@@ -604,7 +620,9 @@
           <t>Prix et sélections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sidonie Quenouille (éditions du Rouergue, 2007)
 2° Prix du Journal des Instituteurs 2008
@@ -619,25 +637,25 @@
 Prix du Livre Élu en Livradois-Forez 2013
 Sélections du Prix des collégiens de la ville de Vannes 2013, du Prix Ruralivres 2013, de Vif d'or 2012 -2013, du Prix de Loudéac et de la Cidéral 2012, du Prix ados Rennes Ille-et-Vilaine 2013, du Prix littéraire des collégiens collège Louise Michel (Paimbeuf) 2012/2013
 On n'a rien vu venir (Alice Jeunesse, préfacé par Stéphane Hessel)
-Prix des PEP[22]
-Sélections 1 jeune = 1 livre 2012[23], du Prix des jeunes lecteurs de la Seyne/mer 2013[22], du Prix Adolire (Lecteurs du Morbihan)[24], Ruralivres 2012/2013[25], du Prix Lire'Elire Annemasse 2013[26], du Prix Jeunes ados, Collège Mermoz, Gien[27], du Prix Albert Camus 2013[28]
-Recommandé par la Ligue des Droits de l'Homme[29]
+Prix des PEP
+Sélections 1 jeune = 1 livre 2012, du Prix des jeunes lecteurs de la Seyne/mer 2013, du Prix Adolire (Lecteurs du Morbihan), Ruralivres 2012/2013, du Prix Lire'Elire Annemasse 2013, du Prix Jeunes ados, Collège Mermoz, Gien, du Prix Albert Camus 2013
+Recommandé par la Ligue des Droits de l'Homme
 Rencontres du Livre et du Citoyen LDH
 Olaf, le géant mélomane (éditions benjamins media, 2012)
-Grand Prix Plume de Paon 2013[30]
-Coup de cœur de l'Académie Charles-Cros [31]
-Sélections du Prix public Plume de paon 2013 [32], du Prix Paille-en-queue 2014[33] (La Réunion)
+Grand Prix Plume de Paon 2013
+Coup de cœur de l'Académie Charles-Cros 
+Sélections du Prix public Plume de paon 2013 , du Prix Paille-en-queue 2014 (La Réunion)
 Bertille au chocolat (éditions Alice Jeunesse, 2012)
-Prix des Bibliothèques des Gâtines 2013/2014[34]
+Prix des Bibliothèques des Gâtines 2013/2014
 Sélection Prix du hérisson 2012/2013
 La fille aux cheveux d'encre (éditions Casterman, 2012)
-Prix des jeunes lecteurs de la ville de Nanterre 2013[35]
+Prix des jeunes lecteurs de la ville de Nanterre 2013
 Sélection Prix de la Nouvelle Revue Pédagogique 2012
 Sweet Sixteen  (éditions Casterman, 2013)
 Prix NRP de littérature jeunesse 2013/2014
 Prix de la librairie Honoré 2013
-Prix de la ville de Loudéac et de la Cidéral 2014[36]
-Sélections du Prix Passerelle(s) Limousin 3e-Seconde 2014/2015, du Prix des incorruptibles 2013/2014[37], du Prix A nous de Lire 2014[38], du Prix Littéraire 2014 des lecteurs du Mans et de la Sarthe[39], du Prix des dévoreurs 2014(Eure)[40], du Prix littéraire de lycées professionnels du Haut-Rhin 2013/2014[41], du Prix du roman historique (Blois)[42]</t>
+Prix de la ville de Loudéac et de la Cidéral 2014
+Sélections du Prix Passerelle(s) Limousin 3e-Seconde 2014/2015, du Prix des incorruptibles 2013/2014, du Prix A nous de Lire 2014, du Prix Littéraire 2014 des lecteurs du Mans et de la Sarthe, du Prix des dévoreurs 2014(Eure), du Prix littéraire de lycées professionnels du Haut-Rhin 2013/2014, du Prix du roman historique (Blois)</t>
         </is>
       </c>
     </row>
